--- a/ModelRuns/ModelComparisons-TCSAM02/Tables_ModelDescription.xlsx
+++ b/ModelRuns/ModelComparisons-TCSAM02/Tables_ModelDescription.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamstockhausen/Work/StockAssessments-Crab/Assessments/TannerCrab/2025-05_TannerCrab/TannerCrab_202505/ModelRuns/ModelComparisons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamstockhausen/Work/StockAssessments-Crab/Assessments/TannerCrab/2025-05_TannerCrab/TannerCrab_202505/ModelRuns/ModelComparisons-TCSAM02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC9875E-B0ED-9D4F-8D57-EA5EDC14F9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B85EB-3340-6A4F-83C0-5AC457D32B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16500" activeTab="5" xr2:uid="{A0F32B82-CDD5-6C44-9600-AA0FFBC75208}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16500" activeTab="2" xr2:uid="{A0F32B82-CDD5-6C44-9600-AA0FFBC75208}"/>
   </bookViews>
   <sheets>
     <sheet name="22.03d5 Biological Processes" sheetId="13" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>1953-1991</t>
   </si>
   <si>
-    <t>GTF</t>
-  </si>
-  <si>
     <t>bycatch in groundfish fisheries</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>22_03d5</t>
+  </si>
+  <si>
+    <t>GF All</t>
   </si>
 </sst>
 </file>
@@ -1426,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
@@ -1600,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -1686,7 +1686,7 @@
         <v>60</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="45" t="s">
         <v>45</v>
@@ -1694,13 +1694,13 @@
     </row>
     <row r="13" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="16" x14ac:dyDescent="0.2">
@@ -1709,25 +1709,25 @@
         <v>57</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="47"/>
       <c r="D15" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="3:5" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="47"/>
       <c r="D16" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -1785,21 +1785,21 @@
         <v>68</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="2"/>
       <c r="E23" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" s="9"/>
       <c r="D24" s="2"/>
       <c r="E24" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
@@ -1808,7 +1808,7 @@
         <v>69</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>59</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -1872,8 +1872,8 @@
   </sheetPr>
   <dimension ref="C1:G50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
         <v>68</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="16" x14ac:dyDescent="0.2">
@@ -1970,7 +1970,7 @@
         <v>69</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="16" x14ac:dyDescent="0.2">
@@ -1979,7 +1979,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="16" x14ac:dyDescent="0.2">
@@ -1990,7 +1990,7 @@
         <v>68</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="16" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>69</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="16" x14ac:dyDescent="0.2">
@@ -2008,15 +2008,15 @@
         <v>59</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C15" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>75</v>
       </c>
       <c r="E15" s="44"/>
     </row>
@@ -2025,16 +2025,16 @@
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="9"/>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>54</v>
@@ -2043,7 +2043,7 @@
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="9"/>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>55</v>
@@ -2054,7 +2054,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>45</v>
@@ -2063,7 +2063,7 @@
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>45</v>
@@ -2072,7 +2072,7 @@
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>45</v>
@@ -2083,7 +2083,7 @@
         <v>46</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>45</v>
@@ -2093,7 +2093,7 @@
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>45</v>
@@ -2102,7 +2102,7 @@
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>45</v>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="3" spans="3:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="14"/>
     </row>
@@ -2347,7 +2347,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -2357,7 +2357,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -2369,7 +2369,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="22"/>
     </row>
@@ -2379,13 +2379,13 @@
         <v>41</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="11"/>
@@ -2393,49 +2393,49 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C16" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="19"/>
     </row>
@@ -2477,28 +2477,28 @@
     <row r="2" spans="3:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:14" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="L3" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="L3" s="38" t="s">
-        <v>85</v>
-      </c>
       <c r="M3" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.2">
@@ -2506,22 +2506,22 @@
         <v>8</v>
       </c>
       <c r="I4" s="74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J4" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="L4" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="M4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2531,16 +2531,16 @@
       <c r="I5" s="75"/>
       <c r="J5" s="78"/>
       <c r="K5" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="M5" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2550,16 +2550,16 @@
       <c r="I6" s="75"/>
       <c r="J6" s="79"/>
       <c r="K6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2568,19 +2568,19 @@
       </c>
       <c r="I7" s="75"/>
       <c r="J7" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="37" t="s">
+      <c r="N7" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M7" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2590,16 +2590,16 @@
       <c r="I8" s="75"/>
       <c r="J8" s="78"/>
       <c r="K8" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="M8" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2612,16 +2612,16 @@
       <c r="I9" s="75"/>
       <c r="J9" s="79"/>
       <c r="K9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,388 +2633,388 @@
       </c>
       <c r="I10" s="75"/>
       <c r="J10" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="M10" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I11" s="75"/>
       <c r="J11" s="78"/>
       <c r="K11" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="M11" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I12" s="75"/>
       <c r="J12" s="79"/>
       <c r="K12" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I13" s="75"/>
       <c r="J13" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="M13" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M13" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I14" s="75"/>
       <c r="J14" s="78"/>
       <c r="K14" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="M14" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I15" s="75"/>
       <c r="J15" s="79"/>
       <c r="K15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I16" s="75"/>
       <c r="J16" s="77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I17" s="75"/>
       <c r="J17" s="78"/>
       <c r="K17" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="M17" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I18" s="75"/>
       <c r="J18" s="79"/>
       <c r="K18" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="19" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="34"/>
       <c r="I19" s="75"/>
       <c r="J19" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="33" t="s">
+      <c r="N19" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M19" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="N19" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I20" s="75"/>
       <c r="J20" s="72"/>
       <c r="K20" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L20" s="31" t="s">
-        <v>92</v>
-      </c>
       <c r="M20" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I21" s="75"/>
       <c r="J21" s="73"/>
       <c r="K21" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="22" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I22" s="75"/>
       <c r="J22" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="33" t="s">
+      <c r="N22" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M22" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I23" s="75"/>
       <c r="J23" s="72"/>
       <c r="K23" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L23" s="31" t="s">
-        <v>92</v>
-      </c>
       <c r="M23" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I24" s="75"/>
       <c r="J24" s="73"/>
       <c r="K24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="N24" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="L24" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" s="28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I25" s="75"/>
       <c r="J25" s="71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="M25" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="N25" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M25" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="N25" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I26" s="75"/>
       <c r="J26" s="72"/>
       <c r="K26" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="31" t="s">
-        <v>92</v>
-      </c>
       <c r="M26" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I27" s="75"/>
       <c r="J27" s="73"/>
       <c r="K27" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N27" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I28" s="75"/>
       <c r="J28" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K28" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="M28" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="N28" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="32" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="4:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I29" s="75"/>
       <c r="J29" s="72"/>
       <c r="K29" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="31" t="s">
-        <v>92</v>
-      </c>
       <c r="M29" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="4:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I30" s="75"/>
       <c r="J30" s="73"/>
       <c r="K30" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N30" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="4:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I31" s="75"/>
       <c r="J31" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="K31" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="L31" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" s="26" t="s">
         <v>105</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N31" s="26" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="4:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I32" s="76"/>
       <c r="J32" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="N32" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="N32" s="26" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +3043,7 @@
   </sheetPr>
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -3066,15 +3066,15 @@
         <v>0</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>1</v>
@@ -3088,44 +3088,44 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="52">
         <v>357</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="52">
         <v>357</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="52">
         <v>357</v>
       </c>
       <c r="E6" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -3180,21 +3180,21 @@
         <v>2</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="60" t="s">
-        <v>121</v>
-      </c>
       <c r="G2" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="52">
         <v>357</v>
@@ -3209,13 +3209,13 @@
         <v>1.7804278441334701E-2</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I3" s="64"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="61" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="52">
         <v>357</v>
@@ -3230,14 +3230,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="64"/>
       <c r="N4" s="65"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="52">
         <v>357</v>
@@ -3252,12 +3252,12 @@
         <v>0</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="52">
         <v>353</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
